--- a/input_xlsx/transkripsi_ahmad (Ahmad A Jabbar).xlsx
+++ b/input_xlsx/transkripsi_ahmad (Ahmad A Jabbar).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TAMBORA MUDA\PENULISAN MANUSCRIPT\Biodivers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="6560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="Literature" sheetId="3" r:id="rId3"/>
     <sheet name="Measurement" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,2631 +22,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">An identifier for the broader Event that groups this and potentially other Events.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "A1" as parentEventID to identify the main Whittaker Plot in nested samples, each with its own eventID (e.g., "A1:1", "A1:2").</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">An identifier for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "A1:1", "A1:2".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The date-time or interval when the event was recorded. Not suitable for a time in a geological context. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E).
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Examples:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"1963-03-08T14:07-0600" is 8 Mar 1963 2:07pm in the time zone six hours earlier than UTC, "2009-02-20T08:40Z" is 20 Feb 2009 8:40am UTC, "1809-02-12" is 12 Feb 1809, "1906-06" is Jun 1906, "1971" is just that year, "2007-03-01T13:00:00Z/2008-05-11T15:30:00Z" is the interval between 1 Mar 2007 1pm UTC and 11 May 2008 3:30pm UTC, "2007-11-13/15" is the interval between 13 Nov 2007 and 15 Nov 2007.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The name of, reference to, or description of the method or protocol used during an Event.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"UV light trap", "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The amount of effort expended during an Event.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Examples:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "40 trap-nights", "10 observer-hours; 10 km by foot; 30 km by car".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> A numeric value for a measurement of the size (time duration, length, area, or volume) of a sample in a sampling event. A sampleSizeValue must have a corresponding sampleSizeUnit.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"5" for sampleSizeValue with "metre" for sampleSizeUnit.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The unit of measurement of the size (time duration, length, area, or volume) of a sample in a sampling event. A sampleSizeUnit must have a corresponding sampleSizeValue. Recommended best practice is to use this controlled vocabulary: http://rs.gbif.org/vocabulary/gbif/unit_of_measurement_2015-07-10.xml
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">"5" for sampleSizeValue with "metre" for sampleSizeUnit. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> An identifier for the set of location information (data associated with dcterms:Location). May be a global unique identifier or an identifier specific to the data set.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Examples: "</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>http://www.geonames.org/10793769", "tr01-dk".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">A Well-Known Text (WKT) representation of the shape (footprint, geometry) that defines the Location. A Location may have both a point-radius representation (see decimalLatitude) and a footprint representation, and they may differ from each other.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>The one-degree bounding box with opposite corners at (longitude=10, latitude=20) and (longitude=11, latitude=21) would be expressed in well-known text as POLYGON ((10 20, 11 20, 11 21, 10 21, 10 20)).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">A Well-Known Text (WKT) representation of the Spatial Reference System (SRS) for the footprintWKT of the Location. Do not use this term to describe the SRS of the decimalLatitude and decimalLongitude, even if it is the same as for the footprintWKT - use the geodeticDatum instead.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The WKT for the standard WGS84 SRS (EPSG:4326) is "GEOGCS["GCS_WGS_1984",DATUM["D_WGS_1984",SPHEROID["WGS_1984",6378137,298.257223563]],PRIMEM["Greenwich",0],UNIT["Degree",0.0174532925199433]]" without the enclosing quotes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "-41.0983423".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "-121.1761111".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The ellipsoid, geodetic datum, or spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based. Recommended best practice is use the EPSG code as a controlled vocabulary to provide an SRS, if known. Otherwise use a controlled vocabulary for the name or code of the geodetic datum, if known. Otherwise use a controlled vocabulary for the name or code of the ellipsoid, if known. If none of these is known, use the value "unknown".
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  "WGS84", "EPSG:4326", "NAD27", "Campo Inchauspe", "European 1950", "Clarke 1866".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The standard code for the country in which the Location occurs. Recommended best practice is to use ISO 3166-1-alpha-2 country codes.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"AR" for Argentina, "SV" for El Salvador.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The name of the island group in which the Location occurs. Recommended best practice is to use a controlled vocabulary such as the Getty Thesaurus of Geographic Names.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"Sumatra", "Borneo", "Java", "Moluccas"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The name of the next smaller administrative region than country (state, province, canton, department, region, etc.) in which the Location occurs.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"West Java", "DIY Yogyakarta"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The full, unabbreviated name of the next smaller administrative region than stateProvince (county, shire, department, etc.) in which the Location occurs.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"Kota Bandung", "Kutai Timur"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The full, unabbreviated name of the next smaller administrative region than county (city, municipality, etc.) in which the Location occurs. Do not use this term for a nearby named place that does not contain the actual location.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"Jatisari", "Buahbatu"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The specific description of the place. Less specific geographic information can be provided in other geographic terms (higherGeography, continent, country, stateProvince, county, municipality, waterBody, island, islandGroup). This term may contain information modified from the original to correct perceived errors or standardize the description.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"Bariloche, 25 km NNE via Ruta Nacional 40 (=Ruta 237)"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">additional notes
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">An identifier for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "A1:1", "A1:2".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurrenceID globally unique.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Examples:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "urn:lsid:nhm.ku.edu:Herps:32", "urn:catalog:FMNH:Mammal:145732".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The specific nature of the data record. Recommended best practice is to use this controlled vocabulary: http://rs.gbif.org/vocabulary/dwc/basis_of_record.xml
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Examples:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"PreservedSpecimen", "FossilSpecimen", "LivingSpecimen", "HumanObservation", "MachineObservation".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The date-time or interval when the event was recorded. Not suitable for a time in a geological context. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E).
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Examples:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"1963-03-08T14:07-0600" is 8 Mar 1963 2:07pm in the time zone six hours earlier than UTC, "2009-02-20T08:40Z" is 20 Feb 2009 8:40am UTC, "1809-02-12" is 12 Feb 1809, "1906-06" is Jun 1906, "1971" is just that year, "2007-03-01T13:00:00Z/2008-05-11T15:30:00Z" is the interval between 1 Mar 2007 1pm UTC and 11 May 2008 3:30pm UTC, "2007-11-13/15" is the interval between 13 Nov 2007 and 15 Nov 2007.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The full scientific name of the kingdom in which the taxon is classified.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "Animalia", "Plantae".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>REQUIRED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The full scientific name, with authorship and date information if known. When forming part of an Identification, this should be the name in lowest level taxonomic rank that can be determined. This term should not contain identification qualifications, which should instead be supplied in the identificationQualifier term.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Examples:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "Roptrocerus typographi (Györfi, 1952)" (genus + specificEpithet + scientificNameAuthorship), "Quercus agrifolia var. oxyadenia (Torr.) J.T. Howell" (genus + specificEpithet + taxonRank + infraspecificEpithet + scientificNameAuthorship), "Coleoptera" (order), "Vespertilionidae" (family), "Manis" (genus), "Ctenomys sociabilis" (genus + specificEpithet), "Ambystoma tigrinum diaboli" (genus + specificEpithet + infraspecificEpithet).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The taxonomic rank of the most specific name in the scientificName. Recommended best practice is to use this controlled vocabulary: http://rs.gbif.org/vocabulary/gbif/rank_2015-04-24.xml
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "species", "genus".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> A common or vernacular name.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "Gaharu", "Takur Ungkut-ungkut".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "-41.0983423".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "-121.1761111".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The ellipsoid, geodetic datum, or spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based. Recommended best practice is use the EPSG code as a controlled vocabulary to provide an SRS, if known. Otherwise use a controlled vocabulary for the name or code of the geodetic datum, if known. Otherwise use a controlled vocabulary for the name or code of the ellipsoid, if known. If none of these is known, use the value "unknown".
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  "WGS84", "EPSG:4326", "NAD27", "Campo Inchauspe", "European 1950", "Clarke 1866".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> A unique (preferably globally-unique) identifier for the taxon represented in the row. Recommended best practice is to use ISO 3166-1-alpha-2 country codes: http://rs.gbif.org/vocabulary/iso/3166-1_alpha2.xml
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>"AR" for Argentina, "SV" for El Salvador.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The number of individuals represented present at the time of the Occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "1", "25".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> A number or enumeration value for the quantity of organisms.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>An organismQuantity must have a corresponding organismQuantityType, e.g., "27" for organismQuantity with "individuals" for organismQuantityType; "12.5" for organismQuantity with "%biomass" for organismQuantityType; "r" for organismQuantity with "BraunBlanquetScale" for organismQuantityType.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The type of quantification system used for the quantity of organisms. Recommended best practice is to use this controlled vocabulary: http://rs.gbif.org/vocabulary/gbif/quantity_type_2015-07-10.xml
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> An organismQuantityType must have a corresponding organismQuantity, e.g., "27" for organismQuantity with "individuals" for organismQuantityType; "12.5" for organismQuantity with "%biomass" for organismQuantityType; "r" for organismQuantity with "BraunBlanquetScale" for organismQuantityType.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> A statement about the presence or absence of a Taxon at a Location. Recommended best practice is to use this controlled vocabulary: http://rs.gbif.org/vocabulary/gbif/occurrence_status.xml
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "present", "absent".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">additional notes
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">An identifier for the broader Event that groups this and potentially other Events.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "A1" as parentEventID to identify the main Whittaker Plot in nested samples, each with its own eventID (e.g., "A1:1", "A1:2").</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> DOI, ISBN, URI, etc refering to the reference. This can be repeated in multiple rows to include multiple identifiers, e.g. a DOI and a URL pointing to a pdf of the article. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> doi:10.1038/ng0609-637; http://www.nature.com/ng/journal/v41/n6/pdf/ng0609-637.pdf</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Title of book or article 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "Genetics of reproductive lifespan", "Field Guide to Moths of Eastern North America"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The author or authors of the referenced work
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "Patricia Hartge"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The author or authors of the referenced work (thesis supervisor)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  "Patricia Hartge"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Date of publication, recommended ISO format YYYY or YYYY-MM-DD 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "6/1/2009"; "2009"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> ISO 639-1 language code indicating the source language of the referent publication 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> en, id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The name (or acronym) in use by the institution having ownership of the object(s) or information referred to in the record.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> IPB, UI, UNIPA, USU, UGM</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> level of education
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "undergraduate", "masters", "doctoral"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">additional notes
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">An identifier for the broader Event that groups this and potentially other Events.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "A1" as parentEventID to identify the main Whittaker Plot in nested samples, each with its own eventID (e.g., "A1:1", "A1:2").</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">REQUIRED
-Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">An identifier for the set of information associated with an Event (something that occurs at a place and time). May be a global unique identifier or an identifier specific to the data set.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "A1:1", "A1:2".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set. 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurrenceID globally unique.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "urn:lsid:nhm.ku.edu:Herps:32", "urn:catalog:FMNH:Mammal:145732".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The nature of the measurement, fact, characteristic, or assertion. Recommended best practice is to use a controlled vocabulary. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "tail length", "temperature", "trap line length", "survey area", "trap type", "Dry weight biomass", "Sampling instrument name"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The value of the measurement, fact, characteristic, or assertion. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "45", "20", "1", "14.5", "UV-light", "Van Veen grab"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The units associated with the measurementValue. Recommended best practice is to use the International System of Units (SI). 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "mm", "C", "km", "ha"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> The date on which the MeasurementOrFact was made. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E). 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> "1963-03-08T14:07-0600", "2009-02-20T08:40Z", "1809-02-12", "1906-06", "1971", "2007-03-01T13:00:00Z/2008-05-11T15:30:00Z", "2007-11-13/15"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>RECOMMENDED
-Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> Comments or notes accompanying the MeasurementOrFact. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  tip of tail missing</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="419">
   <si>
@@ -3915,7 +1286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3953,29 +1324,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3987,13 +1335,6 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -4093,7 +1434,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4142,19 +1483,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -4164,7 +1505,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6743,7 +4084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6795,7 +4136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6989,45 +4330,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.08203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="65.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="16" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="1" customWidth="1"/>
     <col min="14" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="16.875" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="13.25" customWidth="1"/>
-    <col min="19" max="19" width="26.125" customWidth="1"/>
+    <col min="19" max="19" width="26.08203125" customWidth="1"/>
     <col min="20" max="20" width="121.75" customWidth="1"/>
     <col min="21" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7089,7 +4430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
@@ -7137,7 +4478,7 @@
       </c>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>186</v>
       </c>
@@ -7185,7 +4526,7 @@
       </c>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>186</v>
       </c>
@@ -7233,7 +4574,7 @@
       </c>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>186</v>
       </c>
@@ -7281,7 +4622,7 @@
       </c>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>186</v>
       </c>
@@ -7329,7 +4670,7 @@
       </c>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>
@@ -7361,7 +4702,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
@@ -7393,7 +4734,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>189</v>
       </c>
@@ -7425,7 +4766,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -7457,7 +4798,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -7489,7 +4830,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
@@ -7521,7 +4862,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>187</v>
       </c>
@@ -7553,7 +4894,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>187</v>
       </c>
@@ -7585,7 +4926,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>187</v>
       </c>
@@ -7617,7 +4958,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>188</v>
       </c>
@@ -7649,7 +4990,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>188</v>
       </c>
@@ -7681,7 +5022,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>188</v>
       </c>
@@ -7713,7 +5054,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>188</v>
       </c>
@@ -7745,7 +5086,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>188</v>
       </c>
@@ -7777,7 +5118,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>188</v>
       </c>
@@ -7809,7 +5150,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>188</v>
       </c>
@@ -7841,7 +5182,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
@@ -7873,7 +5214,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>188</v>
       </c>
@@ -7905,7 +5246,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -7937,7 +5278,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
@@ -7969,7 +5310,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>204</v>
       </c>
@@ -8001,7 +5342,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
@@ -8033,7 +5374,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>204</v>
       </c>
@@ -8065,7 +5406,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
@@ -8097,7 +5438,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
@@ -8129,7 +5470,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>204</v>
       </c>
@@ -8161,7 +5502,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>204</v>
       </c>
@@ -8193,7 +5534,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>204</v>
       </c>
@@ -8225,7 +5566,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>204</v>
       </c>
@@ -8257,7 +5598,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>204</v>
       </c>
@@ -8289,7 +5630,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>204</v>
       </c>
@@ -8321,7 +5662,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>204</v>
       </c>
@@ -8353,7 +5694,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>204</v>
       </c>
@@ -8385,7 +5726,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>204</v>
       </c>
@@ -8417,7 +5758,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>204</v>
       </c>
@@ -8449,7 +5790,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>204</v>
       </c>
@@ -8485,41 +5826,40 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184:B186"/>
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="45.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="25.75" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" customWidth="1"/>
+    <col min="13" max="13" width="17.08203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="37.625" customWidth="1"/>
+    <col min="17" max="17" width="37.58203125" customWidth="1"/>
     <col min="18" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -8572,7 +5912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>190</v>
       </c>
@@ -8606,7 +5946,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>190</v>
       </c>
@@ -8640,7 +5980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>190</v>
       </c>
@@ -8674,7 +6014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>190</v>
       </c>
@@ -8704,7 +6044,7 @@
       <c r="N5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>190</v>
       </c>
@@ -8734,7 +6074,7 @@
       <c r="N6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>190</v>
       </c>
@@ -8764,7 +6104,7 @@
       <c r="N7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>190</v>
       </c>
@@ -8794,7 +6134,7 @@
       <c r="N8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>190</v>
       </c>
@@ -8824,7 +6164,7 @@
       <c r="N9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>190</v>
       </c>
@@ -8854,7 +6194,7 @@
       <c r="N10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>190</v>
       </c>
@@ -8884,7 +6224,7 @@
       <c r="N11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>190</v>
       </c>
@@ -8914,7 +6254,7 @@
       <c r="N12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>190</v>
       </c>
@@ -8944,7 +6284,7 @@
       <c r="N13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>191</v>
       </c>
@@ -8974,7 +6314,7 @@
       <c r="N14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>191</v>
       </c>
@@ -9004,7 +6344,7 @@
       <c r="N15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>191</v>
       </c>
@@ -9034,7 +6374,7 @@
       <c r="N16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>191</v>
       </c>
@@ -9064,7 +6404,7 @@
       <c r="N17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>191</v>
       </c>
@@ -9094,7 +6434,7 @@
       <c r="N18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>191</v>
       </c>
@@ -9124,7 +6464,7 @@
       <c r="N19" s="12"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>191</v>
       </c>
@@ -9154,7 +6494,7 @@
       <c r="N20" s="12"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>191</v>
       </c>
@@ -9184,7 +6524,7 @@
       <c r="N21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>191</v>
       </c>
@@ -9214,7 +6554,7 @@
       <c r="N22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>191</v>
       </c>
@@ -9244,7 +6584,7 @@
       <c r="N23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>191</v>
       </c>
@@ -9274,7 +6614,7 @@
       <c r="N24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>191</v>
       </c>
@@ -9304,7 +6644,7 @@
       <c r="N25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>191</v>
       </c>
@@ -9334,7 +6674,7 @@
       <c r="N26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>192</v>
       </c>
@@ -9364,7 +6704,7 @@
       <c r="N27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>192</v>
       </c>
@@ -9394,7 +6734,7 @@
       <c r="N28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>192</v>
       </c>
@@ -9424,7 +6764,7 @@
       <c r="N29" s="12"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>192</v>
       </c>
@@ -9454,7 +6794,7 @@
       <c r="N30" s="12"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>192</v>
       </c>
@@ -9484,7 +6824,7 @@
       <c r="N31" s="12"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>192</v>
       </c>
@@ -9514,7 +6854,7 @@
       <c r="N32" s="12"/>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>192</v>
       </c>
@@ -9544,7 +6884,7 @@
       <c r="N33" s="12"/>
       <c r="P33" s="12"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>192</v>
       </c>
@@ -9574,7 +6914,7 @@
       <c r="N34" s="12"/>
       <c r="P34" s="12"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>192</v>
       </c>
@@ -9604,7 +6944,7 @@
       <c r="N35" s="12"/>
       <c r="P35" s="12"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>192</v>
       </c>
@@ -9634,7 +6974,7 @@
       <c r="N36" s="12"/>
       <c r="P36" s="12"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>192</v>
       </c>
@@ -9664,7 +7004,7 @@
       <c r="N37" s="12"/>
       <c r="P37" s="12"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>192</v>
       </c>
@@ -9694,7 +7034,7 @@
       <c r="N38" s="12"/>
       <c r="P38" s="12"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>192</v>
       </c>
@@ -9724,7 +7064,7 @@
       <c r="N39" s="12"/>
       <c r="P39" s="12"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>192</v>
       </c>
@@ -9754,7 +7094,7 @@
       <c r="N40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>192</v>
       </c>
@@ -9784,7 +7124,7 @@
       <c r="N41" s="12"/>
       <c r="P41" s="12"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>192</v>
       </c>
@@ -9814,7 +7154,7 @@
       <c r="N42" s="12"/>
       <c r="P42" s="12"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>193</v>
       </c>
@@ -9844,7 +7184,7 @@
       <c r="N43" s="12"/>
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>193</v>
       </c>
@@ -9874,7 +7214,7 @@
       <c r="N44" s="12"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>193</v>
       </c>
@@ -9904,7 +7244,7 @@
       <c r="N45" s="12"/>
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>193</v>
       </c>
@@ -9934,7 +7274,7 @@
       <c r="N46" s="12"/>
       <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>193</v>
       </c>
@@ -9964,7 +7304,7 @@
       <c r="N47" s="12"/>
       <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>193</v>
       </c>
@@ -9994,7 +7334,7 @@
       <c r="N48" s="12"/>
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>193</v>
       </c>
@@ -10024,7 +7364,7 @@
       <c r="N49" s="12"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>193</v>
       </c>
@@ -10054,7 +7394,7 @@
       <c r="N50" s="12"/>
       <c r="P50" s="12"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>193</v>
       </c>
@@ -10084,7 +7424,7 @@
       <c r="N51" s="12"/>
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>193</v>
       </c>
@@ -10114,7 +7454,7 @@
       <c r="N52" s="12"/>
       <c r="P52" s="12"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>194</v>
       </c>
@@ -10144,7 +7484,7 @@
       <c r="N53" s="12"/>
       <c r="P53" s="12"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>194</v>
       </c>
@@ -10174,7 +7514,7 @@
       <c r="N54" s="12"/>
       <c r="P54" s="12"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>194</v>
       </c>
@@ -10204,7 +7544,7 @@
       <c r="N55" s="12"/>
       <c r="P55" s="12"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>194</v>
       </c>
@@ -10234,7 +7574,7 @@
       <c r="N56" s="12"/>
       <c r="P56" s="12"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>194</v>
       </c>
@@ -10264,7 +7604,7 @@
       <c r="N57" s="12"/>
       <c r="P57" s="12"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>194</v>
       </c>
@@ -10294,7 +7634,7 @@
       <c r="N58" s="12"/>
       <c r="P58" s="12"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>195</v>
       </c>
@@ -10322,7 +7662,7 @@
       <c r="N59" s="12"/>
       <c r="P59" s="12"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>195</v>
       </c>
@@ -10350,7 +7690,7 @@
       <c r="N60" s="12"/>
       <c r="P60" s="12"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>196</v>
       </c>
@@ -10378,7 +7718,7 @@
       <c r="N61" s="12"/>
       <c r="P61" s="12"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>196</v>
       </c>
@@ -10406,7 +7746,7 @@
       <c r="N62" s="12"/>
       <c r="P62" s="12"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>197</v>
       </c>
@@ -10434,7 +7774,7 @@
       <c r="N63" s="12"/>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -10462,7 +7802,7 @@
       <c r="N64" s="12"/>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>197</v>
       </c>
@@ -10490,7 +7830,7 @@
       <c r="N65" s="12"/>
       <c r="P65" s="12"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>198</v>
       </c>
@@ -10518,7 +7858,7 @@
       <c r="N66" s="12"/>
       <c r="P66" s="12"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>198</v>
       </c>
@@ -10546,7 +7886,7 @@
       <c r="N67" s="12"/>
       <c r="P67" s="12"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
@@ -10574,7 +7914,7 @@
       <c r="N68" s="12"/>
       <c r="P68" s="12"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
@@ -10602,7 +7942,7 @@
       <c r="N69" s="12"/>
       <c r="P69" s="12"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>199</v>
       </c>
@@ -10630,7 +7970,7 @@
       <c r="N70" s="12"/>
       <c r="P70" s="12"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
@@ -10658,7 +7998,7 @@
       <c r="N71" s="12"/>
       <c r="P71" s="12"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>200</v>
       </c>
@@ -10686,7 +8026,7 @@
       <c r="N72" s="12"/>
       <c r="P72" s="12"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>201</v>
       </c>
@@ -10714,7 +8054,7 @@
       <c r="N73" s="12"/>
       <c r="P73" s="12"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -10742,7 +8082,7 @@
       <c r="N74" s="12"/>
       <c r="P74" s="12"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>201</v>
       </c>
@@ -10770,7 +8110,7 @@
       <c r="N75" s="12"/>
       <c r="P75" s="12"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>201</v>
       </c>
@@ -10798,7 +8138,7 @@
       <c r="N76" s="12"/>
       <c r="P76" s="12"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>201</v>
       </c>
@@ -10826,7 +8166,7 @@
       <c r="N77" s="12"/>
       <c r="P77" s="12"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -10854,7 +8194,7 @@
       <c r="N78" s="12"/>
       <c r="P78" s="12"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>201</v>
       </c>
@@ -10882,7 +8222,7 @@
       <c r="N79" s="12"/>
       <c r="P79" s="12"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>201</v>
       </c>
@@ -10910,7 +8250,7 @@
       <c r="N80" s="12"/>
       <c r="P80" s="12"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>201</v>
       </c>
@@ -10938,7 +8278,7 @@
       <c r="N81" s="12"/>
       <c r="P81" s="12"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>202</v>
       </c>
@@ -10966,7 +8306,7 @@
       <c r="N82" s="12"/>
       <c r="P82" s="12"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>202</v>
       </c>
@@ -10994,7 +8334,7 @@
       <c r="N83" s="12"/>
       <c r="P83" s="12"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>202</v>
       </c>
@@ -11022,7 +8362,7 @@
       <c r="N84" s="12"/>
       <c r="P84" s="12"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>202</v>
       </c>
@@ -11050,7 +8390,7 @@
       <c r="N85" s="12"/>
       <c r="P85" s="12"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>202</v>
       </c>
@@ -11078,7 +8418,7 @@
       <c r="N86" s="12"/>
       <c r="P86" s="12"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>202</v>
       </c>
@@ -11106,7 +8446,7 @@
       <c r="N87" s="12"/>
       <c r="P87" s="12"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>202</v>
       </c>
@@ -11134,7 +8474,7 @@
       <c r="N88" s="12"/>
       <c r="P88" s="12"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>203</v>
       </c>
@@ -11162,7 +8502,7 @@
       <c r="N89" s="12"/>
       <c r="P89" s="12"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>203</v>
       </c>
@@ -11190,7 +8530,7 @@
       <c r="N90" s="12"/>
       <c r="P90" s="12"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>203</v>
       </c>
@@ -11218,7 +8558,7 @@
       <c r="N91" s="12"/>
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>203</v>
       </c>
@@ -11246,7 +8586,7 @@
       <c r="N92" s="12"/>
       <c r="P92" s="12"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>203</v>
       </c>
@@ -11274,7 +8614,7 @@
       <c r="N93" s="12"/>
       <c r="P93" s="12"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>203</v>
       </c>
@@ -11302,7 +8642,7 @@
       <c r="N94" s="12"/>
       <c r="P94" s="12"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>203</v>
       </c>
@@ -11330,7 +8670,7 @@
       <c r="N95" s="12"/>
       <c r="P95" s="12"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>203</v>
       </c>
@@ -11358,7 +8698,7 @@
       <c r="N96" s="12"/>
       <c r="P96" s="12"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>203</v>
       </c>
@@ -11386,7 +8726,7 @@
       <c r="N97" s="12"/>
       <c r="P97" s="12"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>205</v>
       </c>
@@ -11414,7 +8754,7 @@
       <c r="N98" s="12"/>
       <c r="P98" s="12"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>205</v>
       </c>
@@ -11442,7 +8782,7 @@
       <c r="N99" s="12"/>
       <c r="P99" s="12"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>205</v>
       </c>
@@ -11470,7 +8810,7 @@
       <c r="N100" s="12"/>
       <c r="P100" s="12"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>205</v>
       </c>
@@ -11498,7 +8838,7 @@
       <c r="N101" s="12"/>
       <c r="P101" s="12"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>206</v>
       </c>
@@ -11526,7 +8866,7 @@
       <c r="N102" s="12"/>
       <c r="P102" s="12"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>206</v>
       </c>
@@ -11554,7 +8894,7 @@
       <c r="N103" s="12"/>
       <c r="P103" s="12"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -11582,7 +8922,7 @@
       <c r="N104" s="12"/>
       <c r="P104" s="12"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>207</v>
       </c>
@@ -11610,7 +8950,7 @@
       <c r="N105" s="12"/>
       <c r="P105" s="12"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>207</v>
       </c>
@@ -11638,7 +8978,7 @@
       <c r="N106" s="12"/>
       <c r="P106" s="12"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>208</v>
       </c>
@@ -11666,7 +9006,7 @@
       <c r="N107" s="12"/>
       <c r="P107" s="12"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>208</v>
       </c>
@@ -11694,7 +9034,7 @@
       <c r="N108" s="12"/>
       <c r="P108" s="12"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>208</v>
       </c>
@@ -11722,7 +9062,7 @@
       <c r="N109" s="12"/>
       <c r="P109" s="12"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>208</v>
       </c>
@@ -11750,7 +9090,7 @@
       <c r="N110" s="12"/>
       <c r="P110" s="12"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>209</v>
       </c>
@@ -11778,7 +9118,7 @@
       <c r="N111" s="12"/>
       <c r="P111" s="12"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>209</v>
       </c>
@@ -11806,7 +9146,7 @@
       <c r="N112" s="12"/>
       <c r="P112" s="12"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>209</v>
       </c>
@@ -11834,7 +9174,7 @@
       <c r="N113" s="12"/>
       <c r="P113" s="12"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>209</v>
       </c>
@@ -11862,7 +9202,7 @@
       <c r="N114" s="12"/>
       <c r="P114" s="12"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>209</v>
       </c>
@@ -11890,7 +9230,7 @@
       <c r="N115" s="12"/>
       <c r="P115" s="12"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>209</v>
       </c>
@@ -11918,7 +9258,7 @@
       <c r="N116" s="12"/>
       <c r="P116" s="12"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>209</v>
       </c>
@@ -11946,7 +9286,7 @@
       <c r="N117" s="12"/>
       <c r="P117" s="12"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>209</v>
       </c>
@@ -11974,7 +9314,7 @@
       <c r="N118" s="12"/>
       <c r="P118" s="12"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>210</v>
       </c>
@@ -12002,7 +9342,7 @@
       <c r="N119" s="12"/>
       <c r="P119" s="12"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>210</v>
       </c>
@@ -12030,7 +9370,7 @@
       <c r="N120" s="12"/>
       <c r="P120" s="12"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>211</v>
       </c>
@@ -12058,7 +9398,7 @@
       <c r="N121" s="12"/>
       <c r="P121" s="12"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>211</v>
       </c>
@@ -12086,7 +9426,7 @@
       <c r="N122" s="12"/>
       <c r="P122" s="12"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>211</v>
       </c>
@@ -12114,7 +9454,7 @@
       <c r="N123" s="12"/>
       <c r="P123" s="12"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>211</v>
       </c>
@@ -12142,7 +9482,7 @@
       <c r="N124" s="12"/>
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>211</v>
       </c>
@@ -12170,7 +9510,7 @@
       <c r="N125" s="12"/>
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>211</v>
       </c>
@@ -12198,7 +9538,7 @@
       <c r="N126" s="12"/>
       <c r="P126" s="12"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>211</v>
       </c>
@@ -12226,7 +9566,7 @@
       <c r="N127" s="12"/>
       <c r="P127" s="12"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>211</v>
       </c>
@@ -12254,7 +9594,7 @@
       <c r="N128" s="12"/>
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>212</v>
       </c>
@@ -12282,7 +9622,7 @@
       <c r="N129" s="12"/>
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>212</v>
       </c>
@@ -12310,7 +9650,7 @@
       <c r="N130" s="12"/>
       <c r="P130" s="12"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>212</v>
       </c>
@@ -12338,7 +9678,7 @@
       <c r="N131" s="12"/>
       <c r="P131" s="12"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>213</v>
       </c>
@@ -12366,7 +9706,7 @@
       <c r="N132" s="12"/>
       <c r="P132" s="12"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>213</v>
       </c>
@@ -12394,7 +9734,7 @@
       <c r="N133" s="12"/>
       <c r="P133" s="12"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>213</v>
       </c>
@@ -12422,7 +9762,7 @@
       <c r="N134" s="12"/>
       <c r="P134" s="12"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>213</v>
       </c>
@@ -12450,7 +9790,7 @@
       <c r="N135" s="12"/>
       <c r="P135" s="12"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>214</v>
       </c>
@@ -12478,7 +9818,7 @@
       <c r="N136" s="12"/>
       <c r="P136" s="12"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>214</v>
       </c>
@@ -12506,7 +9846,7 @@
       <c r="N137" s="12"/>
       <c r="P137" s="12"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>214</v>
       </c>
@@ -12534,7 +9874,7 @@
       <c r="N138" s="12"/>
       <c r="P138" s="12"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>215</v>
       </c>
@@ -12562,7 +9902,7 @@
       <c r="N139" s="12"/>
       <c r="P139" s="12"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>215</v>
       </c>
@@ -12590,7 +9930,7 @@
       <c r="N140" s="12"/>
       <c r="P140" s="12"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>215</v>
       </c>
@@ -12618,7 +9958,7 @@
       <c r="N141" s="12"/>
       <c r="P141" s="12"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>216</v>
       </c>
@@ -12646,7 +9986,7 @@
       <c r="N142" s="12"/>
       <c r="P142" s="12"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>216</v>
       </c>
@@ -12674,7 +10014,7 @@
       <c r="N143" s="12"/>
       <c r="P143" s="12"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>216</v>
       </c>
@@ -12698,7 +10038,7 @@
       </c>
       <c r="P144" s="12"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>217</v>
       </c>
@@ -12724,7 +10064,7 @@
       <c r="L145" s="12"/>
       <c r="P145" s="12"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>217</v>
       </c>
@@ -12750,7 +10090,7 @@
       <c r="L146" s="12"/>
       <c r="P146" s="12"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>217</v>
       </c>
@@ -12776,7 +10116,7 @@
       <c r="L147" s="12"/>
       <c r="P147" s="12"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>218</v>
       </c>
@@ -12802,7 +10142,7 @@
       <c r="L148" s="12"/>
       <c r="P148" s="12"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>218</v>
       </c>
@@ -12828,7 +10168,7 @@
       <c r="L149" s="12"/>
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>218</v>
       </c>
@@ -12854,7 +10194,7 @@
       <c r="L150" s="12"/>
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>219</v>
       </c>
@@ -12880,7 +10220,7 @@
       <c r="L151" s="12"/>
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>219</v>
       </c>
@@ -12906,7 +10246,7 @@
       <c r="L152" s="12"/>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>219</v>
       </c>
@@ -12932,7 +10272,7 @@
       <c r="L153" s="12"/>
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>220</v>
       </c>
@@ -12958,7 +10298,7 @@
       <c r="L154" s="12"/>
       <c r="P154" s="12"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>220</v>
       </c>
@@ -12984,7 +10324,7 @@
       <c r="L155" s="12"/>
       <c r="P155" s="12"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>220</v>
       </c>
@@ -13010,7 +10350,7 @@
       <c r="L156" s="12"/>
       <c r="P156" s="12"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>221</v>
       </c>
@@ -13036,7 +10376,7 @@
       <c r="L157" s="12"/>
       <c r="P157" s="12"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>221</v>
       </c>
@@ -13062,7 +10402,7 @@
       <c r="L158" s="12"/>
       <c r="P158" s="12"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>221</v>
       </c>
@@ -13088,7 +10428,7 @@
       <c r="L159" s="12"/>
       <c r="P159" s="12"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>222</v>
       </c>
@@ -13114,7 +10454,7 @@
       <c r="L160" s="12"/>
       <c r="P160" s="12"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>222</v>
       </c>
@@ -13140,7 +10480,7 @@
       <c r="L161" s="12"/>
       <c r="P161" s="12"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>222</v>
       </c>
@@ -13166,7 +10506,7 @@
       <c r="L162" s="12"/>
       <c r="P162" s="12"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>223</v>
       </c>
@@ -13192,7 +10532,7 @@
       <c r="L163" s="12"/>
       <c r="P163" s="12"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>223</v>
       </c>
@@ -13218,7 +10558,7 @@
       <c r="L164" s="12"/>
       <c r="P164" s="12"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>224</v>
       </c>
@@ -13244,7 +10584,7 @@
       <c r="L165" s="12"/>
       <c r="P165" s="12"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>224</v>
       </c>
@@ -13270,7 +10610,7 @@
       <c r="L166" s="12"/>
       <c r="P166" s="12"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>224</v>
       </c>
@@ -13296,7 +10636,7 @@
       <c r="L167" s="12"/>
       <c r="P167" s="12"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>225</v>
       </c>
@@ -13322,7 +10662,7 @@
       <c r="L168" s="12"/>
       <c r="P168" s="12"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>225</v>
       </c>
@@ -13348,7 +10688,7 @@
       <c r="L169" s="12"/>
       <c r="P169" s="12"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>225</v>
       </c>
@@ -13374,7 +10714,7 @@
       <c r="L170" s="12"/>
       <c r="P170" s="12"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>226</v>
       </c>
@@ -13400,7 +10740,7 @@
       <c r="L171" s="12"/>
       <c r="P171" s="12"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>226</v>
       </c>
@@ -13426,7 +10766,7 @@
       <c r="L172" s="12"/>
       <c r="P172" s="12"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>226</v>
       </c>
@@ -13452,7 +10792,7 @@
       <c r="L173" s="12"/>
       <c r="P173" s="12"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>227</v>
       </c>
@@ -13478,7 +10818,7 @@
       <c r="L174" s="12"/>
       <c r="P174" s="12"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>227</v>
       </c>
@@ -13504,7 +10844,7 @@
       <c r="L175" s="12"/>
       <c r="P175" s="12"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>227</v>
       </c>
@@ -13530,7 +10870,7 @@
       <c r="L176" s="12"/>
       <c r="P176" s="12"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>228</v>
       </c>
@@ -13556,7 +10896,7 @@
       <c r="L177" s="12"/>
       <c r="P177" s="12"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>228</v>
       </c>
@@ -13582,7 +10922,7 @@
       <c r="L178" s="12"/>
       <c r="P178" s="12"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>228</v>
       </c>
@@ -13608,7 +10948,7 @@
       <c r="L179" s="12"/>
       <c r="P179" s="12"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>229</v>
       </c>
@@ -13634,7 +10974,7 @@
       <c r="L180" s="12"/>
       <c r="P180" s="12"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>229</v>
       </c>
@@ -13660,7 +11000,7 @@
       <c r="L181" s="12"/>
       <c r="P181" s="12"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>230</v>
       </c>
@@ -13686,7 +11026,7 @@
       <c r="L182" s="12"/>
       <c r="P182" s="12"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>230</v>
       </c>
@@ -13712,7 +11052,7 @@
       <c r="L183" s="12"/>
       <c r="P183" s="12"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>231</v>
       </c>
@@ -13738,7 +11078,7 @@
       <c r="L184" s="12"/>
       <c r="P184" s="12"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>231</v>
       </c>
@@ -13764,7 +11104,7 @@
       <c r="L185" s="12"/>
       <c r="P185" s="12"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>231</v>
       </c>
@@ -13790,7 +11130,7 @@
       <c r="L186" s="12"/>
       <c r="P186" s="12"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
@@ -13801,7 +11141,7 @@
       <c r="L187" s="12"/>
       <c r="P187" s="12"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -13812,7 +11152,7 @@
       <c r="L188" s="12"/>
       <c r="P188" s="12"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
@@ -13823,7 +11163,7 @@
       <c r="L189" s="12"/>
       <c r="P189" s="12"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
@@ -13834,7 +11174,7 @@
       <c r="L190" s="12"/>
       <c r="P190" s="12"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
@@ -13845,7 +11185,7 @@
       <c r="L191" s="12"/>
       <c r="P191" s="12"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -13856,7 +11196,7 @@
       <c r="L192" s="12"/>
       <c r="P192" s="12"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -13867,7 +11207,7 @@
       <c r="L193" s="12"/>
       <c r="P193" s="12"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -13878,7 +11218,7 @@
       <c r="L194" s="12"/>
       <c r="P194" s="12"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
@@ -13889,7 +11229,7 @@
       <c r="L195" s="12"/>
       <c r="P195" s="12"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -13900,7 +11240,7 @@
       <c r="L196" s="12"/>
       <c r="P196" s="12"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -13911,7 +11251,7 @@
       <c r="L197" s="12"/>
       <c r="P197" s="12"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -13922,7 +11262,7 @@
       <c r="L198" s="12"/>
       <c r="P198" s="12"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
@@ -13933,7 +11273,7 @@
       <c r="L199" s="12"/>
       <c r="P199" s="12"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
@@ -13944,7 +11284,7 @@
       <c r="L200" s="12"/>
       <c r="P200" s="12"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
@@ -13955,7 +11295,7 @@
       <c r="L201" s="12"/>
       <c r="P201" s="12"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
@@ -13966,7 +11306,7 @@
       <c r="L202" s="12"/>
       <c r="P202" s="12"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -13977,7 +11317,7 @@
       <c r="L203" s="12"/>
       <c r="P203" s="12"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
@@ -13988,7 +11328,7 @@
       <c r="L204" s="12"/>
       <c r="P204" s="12"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
@@ -13999,7 +11339,7 @@
       <c r="L205" s="12"/>
       <c r="P205" s="12"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
@@ -14010,7 +11350,7 @@
       <c r="L206" s="12"/>
       <c r="P206" s="12"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
@@ -14021,7 +11361,7 @@
       <c r="L207" s="12"/>
       <c r="P207" s="12"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
@@ -14032,7 +11372,7 @@
       <c r="L208" s="12"/>
       <c r="P208" s="12"/>
     </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
@@ -14043,7 +11383,7 @@
       <c r="L209" s="12"/>
       <c r="P209" s="12"/>
     </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
@@ -14054,7 +11394,7 @@
       <c r="L210" s="12"/>
       <c r="P210" s="12"/>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
@@ -14065,7 +11405,7 @@
       <c r="L211" s="12"/>
       <c r="P211" s="12"/>
     </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
@@ -14076,7 +11416,7 @@
       <c r="L212" s="12"/>
       <c r="P212" s="12"/>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
@@ -14087,7 +11427,7 @@
       <c r="L213" s="12"/>
       <c r="P213" s="12"/>
     </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
@@ -14098,7 +11438,7 @@
       <c r="L214" s="12"/>
       <c r="P214" s="12"/>
     </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
@@ -14109,7 +11449,7 @@
       <c r="L215" s="12"/>
       <c r="P215" s="12"/>
     </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
@@ -14120,7 +11460,7 @@
       <c r="L216" s="12"/>
       <c r="P216" s="12"/>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
@@ -14131,7 +11471,7 @@
       <c r="L217" s="12"/>
       <c r="P217" s="12"/>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
@@ -14142,7 +11482,7 @@
       <c r="L218" s="12"/>
       <c r="P218" s="12"/>
     </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
@@ -14153,7 +11493,7 @@
       <c r="L219" s="12"/>
       <c r="P219" s="12"/>
     </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
@@ -14164,7 +11504,7 @@
       <c r="L220" s="12"/>
       <c r="P220" s="12"/>
     </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
@@ -14175,7 +11515,7 @@
       <c r="L221" s="12"/>
       <c r="P221" s="12"/>
     </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
@@ -14186,7 +11526,7 @@
       <c r="L222" s="12"/>
       <c r="P222" s="12"/>
     </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
@@ -14197,7 +11537,7 @@
       <c r="L223" s="12"/>
       <c r="P223" s="12"/>
     </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
@@ -14208,7 +11548,7 @@
       <c r="L224" s="12"/>
       <c r="P224" s="12"/>
     </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
@@ -14219,7 +11559,7 @@
       <c r="L225" s="12"/>
       <c r="P225" s="12"/>
     </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
@@ -14230,7 +11570,7 @@
       <c r="L226" s="12"/>
       <c r="P226" s="12"/>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -14241,7 +11581,7 @@
       <c r="L227" s="12"/>
       <c r="P227" s="12"/>
     </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -14252,7 +11592,7 @@
       <c r="L228" s="12"/>
       <c r="P228" s="12"/>
     </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -14263,7 +11603,7 @@
       <c r="L229" s="12"/>
       <c r="P229" s="12"/>
     </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -14274,7 +11614,7 @@
       <c r="L230" s="12"/>
       <c r="P230" s="12"/>
     </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
@@ -14285,7 +11625,7 @@
       <c r="L231" s="12"/>
       <c r="P231" s="12"/>
     </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
@@ -14296,7 +11636,7 @@
       <c r="L232" s="12"/>
       <c r="P232" s="12"/>
     </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
@@ -14307,7 +11647,7 @@
       <c r="L233" s="12"/>
       <c r="P233" s="12"/>
     </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
@@ -14318,7 +11658,7 @@
       <c r="L234" s="12"/>
       <c r="P234" s="12"/>
     </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
@@ -14329,7 +11669,7 @@
       <c r="L235" s="12"/>
       <c r="P235" s="12"/>
     </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
@@ -14340,7 +11680,7 @@
       <c r="L236" s="12"/>
       <c r="P236" s="12"/>
     </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
@@ -14351,7 +11691,7 @@
       <c r="L237" s="12"/>
       <c r="P237" s="12"/>
     </row>
-    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
@@ -14362,7 +11702,7 @@
       <c r="L238" s="12"/>
       <c r="P238" s="12"/>
     </row>
-    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
@@ -14373,7 +11713,7 @@
       <c r="L239" s="12"/>
       <c r="P239" s="12"/>
     </row>
-    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
@@ -14384,7 +11724,7 @@
       <c r="L240" s="12"/>
       <c r="P240" s="12"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
@@ -14395,7 +11735,7 @@
       <c r="L241" s="12"/>
       <c r="P241" s="12"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
@@ -14406,7 +11746,7 @@
       <c r="L242" s="12"/>
       <c r="P242" s="12"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
@@ -14417,7 +11757,7 @@
       <c r="L243" s="12"/>
       <c r="P243" s="12"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
@@ -14428,7 +11768,7 @@
       <c r="L244" s="12"/>
       <c r="P244" s="12"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
@@ -14439,7 +11779,7 @@
       <c r="L245" s="12"/>
       <c r="P245" s="12"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
@@ -14450,7 +11790,7 @@
       <c r="L246" s="12"/>
       <c r="P246" s="12"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
@@ -14461,7 +11801,7 @@
       <c r="L247" s="12"/>
       <c r="P247" s="12"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
@@ -14472,7 +11812,7 @@
       <c r="L248" s="12"/>
       <c r="P248" s="12"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
@@ -14483,7 +11823,7 @@
       <c r="L249" s="12"/>
       <c r="P249" s="12"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
@@ -14494,7 +11834,7 @@
       <c r="L250" s="12"/>
       <c r="P250" s="12"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -14505,7 +11845,7 @@
       <c r="L251" s="12"/>
       <c r="P251" s="12"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -14516,7 +11856,7 @@
       <c r="L252" s="12"/>
       <c r="P252" s="12"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -14527,7 +11867,7 @@
       <c r="L253" s="12"/>
       <c r="P253" s="12"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -14538,7 +11878,7 @@
       <c r="L254" s="12"/>
       <c r="P254" s="12"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="21"/>
       <c r="B255" s="22"/>
       <c r="C255" s="22"/>
@@ -14556,7 +11896,7 @@
       <c r="O255" s="21"/>
       <c r="P255" s="26"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
@@ -14567,7 +11907,7 @@
       <c r="L256" s="12"/>
       <c r="P256" s="12"/>
     </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
@@ -14578,7 +11918,7 @@
       <c r="L257" s="12"/>
       <c r="P257" s="12"/>
     </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
@@ -14589,7 +11929,7 @@
       <c r="L258" s="12"/>
       <c r="P258" s="12"/>
     </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
@@ -14600,7 +11940,7 @@
       <c r="L259" s="12"/>
       <c r="P259" s="12"/>
     </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
@@ -14611,7 +11951,7 @@
       <c r="L260" s="12"/>
       <c r="P260" s="12"/>
     </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
@@ -14622,7 +11962,7 @@
       <c r="L261" s="12"/>
       <c r="P261" s="12"/>
     </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
@@ -14633,7 +11973,7 @@
       <c r="L262" s="12"/>
       <c r="P262" s="12"/>
     </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
@@ -14644,7 +11984,7 @@
       <c r="L263" s="12"/>
       <c r="P263" s="12"/>
     </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
@@ -14655,7 +11995,7 @@
       <c r="L264" s="12"/>
       <c r="P264" s="12"/>
     </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
@@ -14666,7 +12006,7 @@
       <c r="L265" s="12"/>
       <c r="P265" s="12"/>
     </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
@@ -14677,7 +12017,7 @@
       <c r="L266" s="12"/>
       <c r="P266" s="12"/>
     </row>
-    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
@@ -14688,7 +12028,7 @@
       <c r="L267" s="12"/>
       <c r="P267" s="12"/>
     </row>
-    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
@@ -14699,7 +12039,7 @@
       <c r="L268" s="12"/>
       <c r="P268" s="12"/>
     </row>
-    <row r="269" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
@@ -14710,7 +12050,7 @@
       <c r="L269" s="12"/>
       <c r="P269" s="12"/>
     </row>
-    <row r="270" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
@@ -14721,7 +12061,7 @@
       <c r="L270" s="12"/>
       <c r="P270" s="12"/>
     </row>
-    <row r="271" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
@@ -14732,7 +12072,7 @@
       <c r="L271" s="12"/>
       <c r="P271" s="12"/>
     </row>
-    <row r="272" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
@@ -14743,7 +12083,7 @@
       <c r="L272" s="12"/>
       <c r="P272" s="12"/>
     </row>
-    <row r="273" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
@@ -14754,7 +12094,7 @@
       <c r="L273" s="12"/>
       <c r="P273" s="12"/>
     </row>
-    <row r="274" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
@@ -14765,7 +12105,7 @@
       <c r="L274" s="12"/>
       <c r="P274" s="12"/>
     </row>
-    <row r="275" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
@@ -14776,7 +12116,7 @@
       <c r="L275" s="12"/>
       <c r="P275" s="12"/>
     </row>
-    <row r="276" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
@@ -14787,7 +12127,7 @@
       <c r="L276" s="12"/>
       <c r="P276" s="12"/>
     </row>
-    <row r="277" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -14798,7 +12138,7 @@
       <c r="L277" s="12"/>
       <c r="P277" s="12"/>
     </row>
-    <row r="278" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -14809,7 +12149,7 @@
       <c r="L278" s="12"/>
       <c r="P278" s="12"/>
     </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
@@ -14820,7 +12160,7 @@
       <c r="L279" s="12"/>
       <c r="P279" s="12"/>
     </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
@@ -14831,7 +12171,7 @@
       <c r="L280" s="12"/>
       <c r="P280" s="12"/>
     </row>
-    <row r="281" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
@@ -14842,7 +12182,7 @@
       <c r="L281" s="12"/>
       <c r="P281" s="12"/>
     </row>
-    <row r="282" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
@@ -14853,7 +12193,7 @@
       <c r="L282" s="12"/>
       <c r="P282" s="12"/>
     </row>
-    <row r="283" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
@@ -14864,7 +12204,7 @@
       <c r="L283" s="12"/>
       <c r="P283" s="12"/>
     </row>
-    <row r="284" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
@@ -14875,7 +12215,7 @@
       <c r="L284" s="12"/>
       <c r="P284" s="12"/>
     </row>
-    <row r="285" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
@@ -14886,7 +12226,7 @@
       <c r="L285" s="12"/>
       <c r="P285" s="12"/>
     </row>
-    <row r="286" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
@@ -14897,7 +12237,7 @@
       <c r="L286" s="12"/>
       <c r="P286" s="12"/>
     </row>
-    <row r="287" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
@@ -14908,7 +12248,7 @@
       <c r="L287" s="12"/>
       <c r="P287" s="12"/>
     </row>
-    <row r="288" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
@@ -14919,7 +12259,7 @@
       <c r="L288" s="12"/>
       <c r="P288" s="12"/>
     </row>
-    <row r="289" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
@@ -14930,7 +12270,7 @@
       <c r="L289" s="12"/>
       <c r="P289" s="12"/>
     </row>
-    <row r="290" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
@@ -14941,7 +12281,7 @@
       <c r="L290" s="12"/>
       <c r="P290" s="12"/>
     </row>
-    <row r="291" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
@@ -14952,7 +12292,7 @@
       <c r="L291" s="12"/>
       <c r="P291" s="12"/>
     </row>
-    <row r="292" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
@@ -14963,7 +12303,7 @@
       <c r="L292" s="12"/>
       <c r="P292" s="12"/>
     </row>
-    <row r="293" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
@@ -14974,7 +12314,7 @@
       <c r="L293" s="12"/>
       <c r="P293" s="12"/>
     </row>
-    <row r="294" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
@@ -14985,7 +12325,7 @@
       <c r="L294" s="12"/>
       <c r="P294" s="12"/>
     </row>
-    <row r="295" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
@@ -14996,7 +12336,7 @@
       <c r="L295" s="12"/>
       <c r="P295" s="12"/>
     </row>
-    <row r="296" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -15007,7 +12347,7 @@
       <c r="L296" s="12"/>
       <c r="P296" s="12"/>
     </row>
-    <row r="297" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
@@ -15018,7 +12358,7 @@
       <c r="L297" s="12"/>
       <c r="P297" s="12"/>
     </row>
-    <row r="298" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
@@ -15029,7 +12369,7 @@
       <c r="L298" s="12"/>
       <c r="P298" s="12"/>
     </row>
-    <row r="299" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -15040,7 +12380,7 @@
       <c r="L299" s="12"/>
       <c r="P299" s="12"/>
     </row>
-    <row r="300" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -15051,7 +12391,7 @@
       <c r="L300" s="12"/>
       <c r="P300" s="12"/>
     </row>
-    <row r="301" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -15062,7 +12402,7 @@
       <c r="L301" s="12"/>
       <c r="P301" s="12"/>
     </row>
-    <row r="302" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -15073,7 +12413,7 @@
       <c r="L302" s="12"/>
       <c r="P302" s="12"/>
     </row>
-    <row r="303" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
@@ -15084,7 +12424,7 @@
       <c r="L303" s="12"/>
       <c r="P303" s="12"/>
     </row>
-    <row r="304" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
@@ -15095,7 +12435,7 @@
       <c r="L304" s="12"/>
       <c r="P304" s="12"/>
     </row>
-    <row r="305" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
@@ -15106,7 +12446,7 @@
       <c r="L305" s="12"/>
       <c r="P305" s="12"/>
     </row>
-    <row r="306" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
@@ -15117,7 +12457,7 @@
       <c r="L306" s="12"/>
       <c r="P306" s="12"/>
     </row>
-    <row r="307" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
@@ -15128,7 +12468,7 @@
       <c r="L307" s="12"/>
       <c r="P307" s="12"/>
     </row>
-    <row r="308" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
@@ -15139,7 +12479,7 @@
       <c r="L308" s="12"/>
       <c r="P308" s="12"/>
     </row>
-    <row r="309" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
@@ -15150,7 +12490,7 @@
       <c r="L309" s="12"/>
       <c r="P309" s="12"/>
     </row>
-    <row r="310" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
@@ -15161,7 +12501,7 @@
       <c r="L310" s="12"/>
       <c r="P310" s="12"/>
     </row>
-    <row r="311" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
@@ -15172,7 +12512,7 @@
       <c r="L311" s="12"/>
       <c r="P311" s="12"/>
     </row>
-    <row r="312" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
@@ -15183,7 +12523,7 @@
       <c r="L312" s="12"/>
       <c r="P312" s="12"/>
     </row>
-    <row r="313" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
@@ -15194,7 +12534,7 @@
       <c r="L313" s="12"/>
       <c r="P313" s="12"/>
     </row>
-    <row r="314" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
@@ -15205,7 +12545,7 @@
       <c r="L314" s="12"/>
       <c r="P314" s="12"/>
     </row>
-    <row r="315" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
       <c r="D315" s="13"/>
@@ -15216,7 +12556,7 @@
       <c r="L315" s="12"/>
       <c r="P315" s="12"/>
     </row>
-    <row r="316" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
       <c r="D316" s="13"/>
@@ -15227,7 +12567,7 @@
       <c r="L316" s="12"/>
       <c r="P316" s="12"/>
     </row>
-    <row r="317" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
       <c r="D317" s="13"/>
@@ -15238,7 +12578,7 @@
       <c r="L317" s="12"/>
       <c r="P317" s="12"/>
     </row>
-    <row r="318" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
       <c r="D318" s="13"/>
@@ -15249,7 +12589,7 @@
       <c r="L318" s="12"/>
       <c r="P318" s="12"/>
     </row>
-    <row r="319" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
       <c r="D319" s="13"/>
@@ -15260,7 +12600,7 @@
       <c r="L319" s="12"/>
       <c r="P319" s="12"/>
     </row>
-    <row r="320" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
       <c r="D320" s="13"/>
@@ -15271,7 +12611,7 @@
       <c r="L320" s="12"/>
       <c r="P320" s="12"/>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
       <c r="D321" s="13"/>
@@ -15282,7 +12622,7 @@
       <c r="L321" s="12"/>
       <c r="P321" s="12"/>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" s="21"/>
       <c r="B322" s="25"/>
       <c r="C322" s="25"/>
@@ -15304,12 +12644,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -15317,22 +12656,22 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="130.25" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="34.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
     <col min="11" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15364,7 +12703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>186</v>
       </c>
@@ -15393,7 +12732,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -15422,7 +12761,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
@@ -15451,7 +12790,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>188</v>
       </c>
@@ -15480,7 +12819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>204</v>
       </c>
@@ -15501,34 +12840,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="22.08203125" style="31" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="31" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="31" customWidth="1"/>
     <col min="5" max="5" width="20" style="31" customWidth="1"/>
     <col min="6" max="6" width="21.75" style="31" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="31" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" style="31" customWidth="1"/>
     <col min="10" max="1025" width="8.5" style="31" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="8"/>
@@ -15539,71 +12877,70 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="30"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="30"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="30"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="30"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="30"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="30"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>